--- a/R/data/JC Poultry Farm - Business Operating Model_v1_250414.xlsx
+++ b/R/data/JC Poultry Farm - Business Operating Model_v1_250414.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Parking Lot\Web Projects\jc-farms\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF4299E-3858-4667-8C52-80C7EBC701B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF175F67-65A9-4F98-850D-2F9E4B5E5A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="20" activeTab="22" xr2:uid="{7B0A1020-A1E3-46BF-A415-695171A71206}"/>
   </bookViews>
@@ -24365,7 +24365,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
